--- a/Horizontal/fib_pascal _horizontal.xlsx
+++ b/Horizontal/fib_pascal _horizontal.xlsx
@@ -370,7 +370,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -417,7 +417,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="1">
         <v>2.0</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" s="1">
         <v>3.0</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" s="1">
         <v>5.0</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" s="1">
         <v>8.0</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" s="1">
         <v>13.0</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" s="1">
         <v>21.0</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" s="1">
         <v>34.0</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="1">
         <v>55.0</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="B13" s="1">
         <v>89.0</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" s="1">
         <v>144.0</v>
@@ -977,6 +977,159 @@
       </c>
       <c r="O14" s="1">
         <v>530111.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>233.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1594323.0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>936.0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>368757.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>377.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4782969.0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2556.0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>720144.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>610.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.4348907E7</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3272.0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>12167.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>987.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.3046721E7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3410.0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>25938.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1597.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.29140163E8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4864.0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>194453.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2584.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.87420489E8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20832.0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>54387.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4181.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.162261467E9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>37582.0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>56499.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6765.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.486784401E9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>83054.0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1.16237277E9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10946.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.0460353203E10</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1440.0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.324862414E9</v>
       </c>
     </row>
   </sheetData>
